--- a/biology/Botanique/Tradescantia_spathacea/Tradescantia_spathacea.xlsx
+++ b/biology/Botanique/Tradescantia_spathacea/Tradescantia_spathacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tradescantia spathacea est une espèce de plantes de la famille des Commelinaceae originaire des Antilles et d'Amérique centrale.
 </t>
@@ -511,7 +523,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Guadeloupe: Gros curage, Rhoeo Hance
 Haïti : Boul dimass</t>
@@ -542,13 +556,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rhoeo spathacea (Swartz) Stearn (1957)
 Tradescantia discolor L'Héritier (1788)
 Tradescantia versicolor Salisbury (1796)
 Rhoeo discolor (L'Héritier) Hance ex Walpers (1853)
-Ephemerum bicolor Moench (1802)[1]</t>
+Ephemerum bicolor Moench (1802)</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée haute de 70 centimètes, à tige succulente, et feuilles longues, vertes dessus et violettes dessous; Fleurs bractéolées, en ombelles
 sessiles, multiflores, renfermées dans deux bractées violettes.
@@ -608,7 +626,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cette plante dans les forêts sèches du Mexique, d'Amérique centrale et des Antilles.
 </t>
